--- a/7_Suspension/Fichiers_Suspension/Liste_A5.xlsx
+++ b/7_Suspension/Fichiers_Suspension/Liste_A5.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Nom Code Plaque</t>
   </si>
@@ -46,10 +46,40 @@
     <t>Statut code IMB</t>
   </si>
   <si>
-    <t>CEMRN2SP_1022</t>
+    <t>CEMRJ1CO_1013</t>
   </si>
   <si>
     <t>Liste A5</t>
+  </si>
+  <si>
+    <t>IMB/26198/C/03EG</t>
+  </si>
+  <si>
+    <t>Obtention BPT</t>
+  </si>
+  <si>
+    <t>ZN_0319_26_0075</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>En attente BPT</t>
+  </si>
+  <si>
+    <t>ZE_1903_26_0017_01</t>
+  </si>
+  <si>
+    <t>RGT_1903_26_0046</t>
+  </si>
+  <si>
+    <t>Qualif en cours</t>
+  </si>
+  <si>
+    <t>IMB/26198/C/03ZV</t>
+  </si>
+  <si>
+    <t>ZN_0319_26_0083</t>
   </si>
 </sst>
 </file>
@@ -113,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -121,6 +151,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,6 +492,75 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A3:G3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
